--- a/files/template_approval.xlsx
+++ b/files/template_approval.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve_id</t>
   </si>
   <si>
     <t xml:space="preserve">village</t>
@@ -43,34 +43,37 @@
     <t xml:space="preserve">division</t>
   </si>
   <si>
-    <t xml:space="preserve">HT Length (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT 1 Phase Length (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT 3 Phase Length (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 KVA DTR (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 KVA DTR (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 KVA DTR (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8m STP (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9m STP (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLD Approval Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rem</t>
+    <t xml:space="preserve">ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_ht_8m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lt3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_lt_8m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_25kva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_63kva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_100kva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_9m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remark</t>
   </si>
   <si>
     <t xml:space="preserve">270098meisnamkangmong</t>
@@ -101,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,6 +130,14 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -180,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,7 +204,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,13 +229,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="14.5"/>
   </cols>
@@ -277,41 +292,44 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>270098</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
